--- a/Form 1_response.xlsx
+++ b/Form 1_response.xlsx
@@ -26,25 +26,25 @@
     <t>fsafsadfaf</t>
   </si>
   <si>
-    <t>Option 10</t>
+    <t>Option 1</t>
   </si>
   <si>
     <t>sfasfdasff</t>
   </si>
   <si>
-    <t>Option 2,Option 1</t>
+    <t>Option 1,Option 2</t>
   </si>
   <si>
     <t>fasfdaf</t>
   </si>
   <si>
-    <t>editing check...</t>
+    <t>Hello there....</t>
   </si>
   <si>
     <t>fdsfafdsaf</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>fasdfsafasf</t>
@@ -53,7 +53,7 @@
     <t>fasfdafasd</t>
   </si>
   <si>
-    <t>fdsdfafasfa</t>
+    <t>Hello there from second descriptive</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <cols>
     <col min="1" max="1" width="6.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="33.0234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Form 1_response.xlsx
+++ b/Form 1_response.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Q.No.</t>
   </si>
@@ -23,37 +23,40 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>fsafsadfaf</t>
-  </si>
-  <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>sfasfdasff</t>
-  </si>
-  <si>
-    <t>Option 1,Option 2</t>
-  </si>
-  <si>
-    <t>fasfdaf</t>
-  </si>
-  <si>
-    <t>Hello there....</t>
-  </si>
-  <si>
-    <t>fdsfafdsaf</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>fasdfsafasf</t>
-  </si>
-  <si>
-    <t>fasfdafasd</t>
-  </si>
-  <si>
-    <t>Hello there from second descriptive</t>
+    <t>Single choice Question</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Multiple Choice Question</t>
+  </si>
+  <si>
+    <t>Option 2,Option 3</t>
+  </si>
+  <si>
+    <t>Descriptive Question</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Star Question</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Descriptive 2</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in ==== EDITED ONE ====</t>
+  </si>
+  <si>
+    <t>Star Question At next page</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -123,8 +126,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -190,7 +193,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -198,10 +201,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
